--- a/hexaboards/DataFileScripts.xlsx
+++ b/hexaboards/DataFileScripts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -91,6 +91,9 @@
     <t xml:space="preserve">Employees321</t>
   </si>
   <si>
+    <t xml:space="preserve">employee_123@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emmp109</t>
   </si>
   <si>
@@ -118,15 +121,24 @@
     <t xml:space="preserve">employee123</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee124</t>
+  </si>
+  <si>
     <t xml:space="preserve">Andrea Contreras</t>
   </si>
   <si>
     <t xml:space="preserve">@employee123.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee125</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carlos Martinez</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee126</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maria Siempre</t>
   </si>
   <si>
@@ -202,6 +214,9 @@
     <t xml:space="preserve">edmanu@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee127</t>
+  </si>
+  <si>
     <t xml:space="preserve">test</t>
   </si>
   <si>
@@ -211,6 +226,9 @@
     <t xml:space="preserve">employee892@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee128</t>
+  </si>
+  <si>
     <t xml:space="preserve">Testonetwothree*1</t>
   </si>
   <si>
@@ -220,6 +238,9 @@
     <t xml:space="preserve">brayanfa@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee129</t>
+  </si>
+  <si>
     <t xml:space="preserve">testnine</t>
   </si>
   <si>
@@ -229,12 +250,18 @@
     <t xml:space="preserve">cargas@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee130</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hector Gonzales</t>
   </si>
   <si>
     <t xml:space="preserve">pomllak@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee131</t>
+  </si>
+  <si>
     <t xml:space="preserve">test432</t>
   </si>
   <si>
@@ -244,22 +271,25 @@
     <t xml:space="preserve">employeesaim@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee_12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Martin Lopez</t>
   </si>
   <si>
     <t xml:space="preserve">corgmas@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee_13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lalito Lalito</t>
   </si>
   <si>
     <t xml:space="preserve">optamolog@hotmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">AlexRivera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Vazquez</t>
+    <t xml:space="preserve"> Patricio Estrella</t>
   </si>
   <si>
     <t xml:space="preserve">sadasd@hotmail.com</t>
@@ -380,7 +410,7 @@
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -426,6 +456,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -533,7 +570,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -566,6 +603,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -578,51 +619,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -630,11 +667,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -697,11 +750,11 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -780,16 +833,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.89"/>
   </cols>
@@ -866,11 +919,11 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -885,416 +938,431 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="19.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="F21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="F22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>69</v>
+      <c r="A24" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="F24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="10"/>
       <c r="F25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="11" t="n">
+      <c r="A28" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="14" t="n">
         <v>32456</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="D28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="7"/>
     </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="ivonne@gmail.com"/>
     <hyperlink ref="B3" r:id="rId2" display="alexisrivera@hotmail.com"/>
     <hyperlink ref="B4" r:id="rId3" display="marcorivera@hotmail.com"/>
     <hyperlink ref="B5" r:id="rId4" display="employee123@hotmail.com"/>
-    <hyperlink ref="B6" r:id="rId5" display="employee123@hotmail.com"/>
+    <hyperlink ref="B6" r:id="rId5" display="employee_123@hotmail.com"/>
     <hyperlink ref="B12" r:id="rId6" display="marisiempre@hotmail.com"/>
     <hyperlink ref="B13" r:id="rId7" display="hirosasiem@hotmail.com"/>
     <hyperlink ref="B14" r:id="rId8" display="cantaralMari@hotmail.com"/>
@@ -1334,50 +1402,50 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="12"/>
+        <v>89</v>
+      </c>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="17" t="n">
         <v>200</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="14"/>
+      <c r="A4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1401,7 +1469,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
   </cols>
@@ -1410,64 +1478,64 @@
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+      <c r="A6" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1491,32 +1559,32 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24"/>
+      <c r="A2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>87</v>
+      <c r="A3" s="24" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>88</v>
+      <c r="A4" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>89</v>
+      <c r="A5" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1524,8 +1592,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1541,79 +1609,79 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="n">
+      <c r="A5" s="24" t="n">
         <v>123131</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="29"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1637,223 +1705,223 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>98</v>
+      <c r="B1" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="28" t="n">
+        <v>111</v>
+      </c>
+      <c r="C2" s="32" t="n">
         <v>43737</v>
       </c>
-      <c r="D2" s="28" t="n">
+      <c r="D2" s="32" t="n">
         <v>44103</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="28" t="n">
+        <v>111</v>
+      </c>
+      <c r="C3" s="32" t="n">
         <v>43737</v>
       </c>
-      <c r="D3" s="28" t="n">
+      <c r="D3" s="32" t="n">
         <v>44103</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>103</v>
+      <c r="A4" s="34" t="s">
+        <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="28" t="n">
+        <v>111</v>
+      </c>
+      <c r="C4" s="32" t="n">
         <v>43737</v>
       </c>
-      <c r="D4" s="28" t="n">
+      <c r="D4" s="32" t="n">
         <v>44103</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="28" t="n">
+        <v>111</v>
+      </c>
+      <c r="C5" s="32" t="n">
         <v>43737</v>
       </c>
-      <c r="D5" s="28" t="n">
+      <c r="D5" s="32" t="n">
         <v>44103</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="28" t="n">
+      <c r="A6" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="32" t="n">
         <v>43737</v>
       </c>
-      <c r="D6" s="28" t="n">
+      <c r="D6" s="32" t="n">
         <v>44103</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="32" t="n">
+        <v>118</v>
+      </c>
+      <c r="C7" s="36" t="n">
         <v>43737</v>
       </c>
-      <c r="D7" s="28" t="n">
+      <c r="D7" s="32" t="n">
         <v>44103</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="33" t="n">
+        <v>120</v>
+      </c>
+      <c r="C8" s="37" t="n">
         <v>43737</v>
       </c>
-      <c r="D8" s="28" t="n">
+      <c r="D8" s="32" t="n">
         <v>44103</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="28" t="n">
+      <c r="C9" s="32" t="n">
         <v>43737</v>
       </c>
-      <c r="D9" s="33" t="n">
+      <c r="D9" s="37" t="n">
         <v>44103</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
-        <v>112</v>
+      <c r="A10" s="38" t="s">
+        <v>122</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="28" t="n">
+        <v>111</v>
+      </c>
+      <c r="C10" s="32" t="n">
         <v>43737</v>
       </c>
-      <c r="D10" s="28" t="n">
+      <c r="D10" s="32" t="n">
         <v>44103</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2013,6 +2081,153 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056756CBDA4A3A748BF1D83071746FE3E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bae607ec0de29d4a7bae1d5bc523f98">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ff4d210d-33a5-4669-9f33-307c93654564" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8c9183ad491ec9cebc874e40620de0ab" ns2:_="">
+    <xsd:import namespace="ff4d210d-33a5-4669-9f33-307c93654564"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ff4d210d-33a5-4669-9f33-307c93654564" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53E9EC27-C157-4782-BD18-147EB4E38F0C}"/>
 </file>
@@ -2023,4 +2238,16 @@
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F34C71-506A-4473-A656-A185F5B55F12}"/>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6404C95-48F8-40E6-8330-FE213801FFD0}"/>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F675FB4C-4532-40B3-BE3E-E90530E04DC0}"/>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF34FC8F-F328-4900-91C3-AEF556193AE2}"/>
 </file>
--- a/hexaboards/DataFileScripts.xlsx
+++ b/hexaboards/DataFileScripts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <sheet name="EP_Email" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="EP_Password" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="ProjectCreation" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="ProfileInformation" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="113">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -533,7 +534,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -675,6 +676,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -697,11 +702,11 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -783,10 +788,10 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
@@ -1334,7 +1339,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
@@ -1401,7 +1406,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
   </cols>
@@ -1491,7 +1496,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
   </cols>
@@ -1541,7 +1546,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
@@ -1637,7 +1642,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -1862,6 +1867,66 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.47"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="ivonne@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>

--- a/hexaboards/DataFileScripts.xlsx
+++ b/hexaboards/DataFileScripts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,6 @@
     <sheet name="EP_Email" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="EP_Password" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="ProjectCreation" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="ProfileInformation" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="115">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -38,30 +37,36 @@
     <t xml:space="preserve">Ivonne</t>
   </si>
   <si>
+    <t xml:space="preserve">Testnine*2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">holis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jejejs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonne Contreras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivonne@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ivonne1-</t>
   </si>
   <si>
-    <t xml:space="preserve">holis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jejejs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivonne Contreras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ivonne@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alexis Rivera</t>
   </si>
   <si>
@@ -71,9 +76,6 @@
     <t xml:space="preserve">Alex_Rivera</t>
   </si>
   <si>
-    <t xml:space="preserve">Testnine*2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marcos Rivera</t>
   </si>
   <si>
@@ -272,6 +274,12 @@
     <t xml:space="preserve">Hello</t>
   </si>
   <si>
+    <t xml:space="preserve">Fernanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fer@1997</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anahi Contreras</t>
   </si>
   <si>
@@ -294,9 +302,6 @@
   </si>
   <si>
     <t xml:space="preserve">almendrahotmail@.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Hugo23siem@</t>
@@ -381,7 +386,7 @@
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -465,6 +470,20 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -551,6 +570,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -599,10 +622,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -611,7 +630,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -627,7 +646,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -635,7 +654,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -676,10 +699,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -700,13 +719,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -767,6 +786,14 @@
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -787,11 +814,11 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
@@ -800,498 +827,498 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="B5" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7"/>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="7"/>
+      <c r="B15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7"/>
+      <c r="C16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="7"/>
+      <c r="C17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7"/>
+      <c r="C18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7"/>
+      <c r="C19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="7"/>
+      <c r="C20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="C21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="7"/>
+      <c r="C22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="7"/>
+      <c r="B23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="C24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="7"/>
+      <c r="B25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="7"/>
+      <c r="B26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="7"/>
+      <c r="C27" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="11" t="n">
+      <c r="B28" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="12" t="n">
         <v>32456</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="7"/>
+      <c r="D28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1335,54 +1362,54 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="14" t="n">
         <v>200</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="14"/>
+      <c r="A4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1402,21 +1429,27 @@
   </sheetPr>
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="16"/>
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -1436,45 +1469,77 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="116.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="19"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+        <v>87</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="19"/>
+        <v>88</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Fer@1997"/>
+    <hyperlink ref="C3" r:id="rId2" display="Fer@1997"/>
+    <hyperlink ref="C4" r:id="rId3" display="Fer@1997"/>
+    <hyperlink ref="C5" r:id="rId4" display="Fer@1997"/>
+    <hyperlink ref="C6" r:id="rId5" display="Fer@1997"/>
+    <hyperlink ref="C7" r:id="rId6" display="Fer@1997"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1490,47 +1555,84 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>89</v>
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Fer@1997"/>
+    <hyperlink ref="C3" r:id="rId2" display="Fer@1997"/>
+    <hyperlink ref="C4" r:id="rId3" display="Fer@1997"/>
+    <hyperlink ref="C5" r:id="rId4" display="Fer@1997"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1540,20 +1642,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -1573,54 +1679,92 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="14"/>
+        <v>92</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="14"/>
+        <v>93</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="n">
         <v>123131</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="15"/>
+        <v>95</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="25"/>
-    </row>
+        <v>97</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Fer@1997"/>
+    <hyperlink ref="C3" r:id="rId2" display="Fer@1997"/>
+    <hyperlink ref="C4" r:id="rId3" display="Fer@1997"/>
+    <hyperlink ref="C5" r:id="rId4" display="Fer@1997"/>
+    <hyperlink ref="C6" r:id="rId5" display="Fer@1997"/>
+    <hyperlink ref="C7" r:id="rId6" display="Fer@1997"/>
+    <hyperlink ref="C8" r:id="rId7" display="Fer@1997"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1638,227 +1782,227 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>98</v>
       </c>
+      <c r="C1" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>100</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="28" t="n">
+        <v>103</v>
+      </c>
+      <c r="C2" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D2" s="28" t="n">
+      <c r="D2" s="29" t="n">
         <v>44103</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="28" t="n">
+        <v>103</v>
+      </c>
+      <c r="C3" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D3" s="28" t="n">
+      <c r="D3" s="29" t="n">
         <v>44103</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="28" t="n">
+      <c r="C4" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D4" s="28" t="n">
+      <c r="D4" s="29" t="n">
         <v>44103</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="29" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D5" s="29" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="28" t="n">
+      <c r="F5" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D5" s="28" t="n">
+      <c r="D6" s="29" t="n">
         <v>44103</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="28" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D6" s="28" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="32" t="n">
+        <v>110</v>
+      </c>
+      <c r="C7" s="33" t="n">
         <v>43737</v>
       </c>
-      <c r="D7" s="28" t="n">
+      <c r="D7" s="29" t="n">
         <v>44103</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="33" t="n">
+        <v>112</v>
+      </c>
+      <c r="C8" s="34" t="n">
         <v>43737</v>
       </c>
-      <c r="D8" s="28" t="n">
+      <c r="D8" s="29" t="n">
         <v>44103</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="28" t="n">
+        <v>103</v>
+      </c>
+      <c r="C9" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D9" s="33" t="n">
+      <c r="D9" s="34" t="n">
         <v>44103</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
-        <v>112</v>
+      <c r="A10" s="35" t="s">
+        <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="28" t="n">
+        <v>103</v>
+      </c>
+      <c r="C10" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D10" s="28" t="n">
+      <c r="D10" s="29" t="n">
         <v>44103</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1867,66 +2011,6 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.47"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="ivonne@gmail.com"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>

--- a/hexaboards/DataFileScripts.xlsx
+++ b/hexaboards/DataFileScripts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="115">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">jejejs</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
@@ -272,6 +275,12 @@
     <t xml:space="preserve">Hello</t>
   </si>
   <si>
+    <t xml:space="preserve">Fernanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fer@1997</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anahi Contreras</t>
   </si>
   <si>
@@ -294,9 +303,6 @@
   </si>
   <si>
     <t xml:space="preserve">almendrahotmail@.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Hugo23siem@</t>
@@ -381,7 +387,7 @@
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -465,6 +471,20 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -551,6 +571,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -599,10 +623,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -611,7 +631,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -627,7 +647,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -635,7 +655,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -676,10 +700,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -700,13 +720,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -767,6 +787,14 @@
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +819,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
@@ -800,29 +828,29 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -833,465 +861,465 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="B5" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7"/>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="7"/>
+      <c r="B15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7"/>
+      <c r="C16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="7"/>
+      <c r="C17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7"/>
+      <c r="C18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7"/>
+      <c r="C19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="7"/>
+      <c r="C20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="C21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="7"/>
+      <c r="C22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="7"/>
+      <c r="B23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="C24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="7"/>
+      <c r="B25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="7"/>
+      <c r="B26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="7"/>
+      <c r="C27" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="11" t="n">
+      <c r="B28" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="12" t="n">
         <v>32456</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="7"/>
+      <c r="D28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1339,50 +1367,50 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="14" t="n">
         <v>200</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="14"/>
+      <c r="A4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1403,20 +1431,24 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="16"/>
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -1436,45 +1468,77 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
+        <v>87</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="19"/>
+        <v>88</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Fer@1997"/>
+    <hyperlink ref="C3" r:id="rId2" display="Fer@1997"/>
+    <hyperlink ref="C4" r:id="rId3" display="Fer@1997"/>
+    <hyperlink ref="C5" r:id="rId4" display="Fer@1997"/>
+    <hyperlink ref="C6" r:id="rId5" display="Fer@1997"/>
+    <hyperlink ref="C7" r:id="rId6" display="Fer@1997"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1490,41 +1554,77 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>89</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Fer@1997"/>
+    <hyperlink ref="C3" r:id="rId2" display="Fer@1997"/>
+    <hyperlink ref="C4" r:id="rId3" display="Fer@1997"/>
+    <hyperlink ref="C5" r:id="rId4" display="Fer@1997"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1542,18 +1642,22 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -1573,54 +1677,91 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="14"/>
+        <v>92</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="14"/>
+        <v>93</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="n">
         <v>123131</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="15"/>
+        <v>95</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="25"/>
+        <v>97</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Fer@1997"/>
+    <hyperlink ref="C3" r:id="rId2" display="Fer@1997"/>
+    <hyperlink ref="C4" r:id="rId3" display="Fer@1997"/>
+    <hyperlink ref="C5" r:id="rId4" display="Fer@1997"/>
+    <hyperlink ref="C6" r:id="rId5" display="Fer@1997"/>
+    <hyperlink ref="C7" r:id="rId6" display="Fer@1997"/>
+    <hyperlink ref="C8" r:id="rId7" display="Fer@1997"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1642,223 +1783,223 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>98</v>
       </c>
+      <c r="C1" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>100</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="28" t="n">
+        <v>103</v>
+      </c>
+      <c r="C2" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D2" s="28" t="n">
+      <c r="D2" s="29" t="n">
         <v>44103</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="28" t="n">
+        <v>103</v>
+      </c>
+      <c r="C3" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D3" s="28" t="n">
+      <c r="D3" s="29" t="n">
         <v>44103</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="28" t="n">
+      <c r="C4" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D4" s="28" t="n">
+      <c r="D4" s="29" t="n">
         <v>44103</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="29" t="n">
+        <v>43737</v>
+      </c>
+      <c r="D5" s="29" t="n">
+        <v>44103</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="28" t="n">
+      <c r="F5" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D5" s="28" t="n">
+      <c r="D6" s="29" t="n">
         <v>44103</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="28" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D6" s="28" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="32" t="n">
+        <v>110</v>
+      </c>
+      <c r="C7" s="33" t="n">
         <v>43737</v>
       </c>
-      <c r="D7" s="28" t="n">
+      <c r="D7" s="29" t="n">
         <v>44103</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="33" t="n">
+        <v>112</v>
+      </c>
+      <c r="C8" s="34" t="n">
         <v>43737</v>
       </c>
-      <c r="D8" s="28" t="n">
+      <c r="D8" s="29" t="n">
         <v>44103</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="28" t="n">
+        <v>103</v>
+      </c>
+      <c r="C9" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D9" s="33" t="n">
+      <c r="D9" s="34" t="n">
         <v>44103</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
-        <v>112</v>
+      <c r="A10" s="35" t="s">
+        <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="28" t="n">
+        <v>103</v>
+      </c>
+      <c r="C10" s="29" t="n">
         <v>43737</v>
       </c>
-      <c r="D10" s="28" t="n">
+      <c r="D10" s="29" t="n">
         <v>44103</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1878,43 +2019,43 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>86</v>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/hexaboards/DataFileScripts.xlsx
+++ b/hexaboards/DataFileScripts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="135">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">Alex-Rivera</t>
   </si>
   <si>
-    <t xml:space="preserve">Lorem ipsum dolor sit amet consectetur adipiscing elit interdum, proin duis sagittis euismod ante ornare felis, augue nisl sociis netus bibendum cursus penatibus. Mattis natoque magna sapien nostra tortor gravida pharetra ultricies cras mauris, ornare congue curae rhoncus nullam cum</t>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet consectetur adipiscing elit interdumd proin duis sagittis euismod ante ornare felisd augue nisl sociis netus bibendum cursus penatibus. Mattis natoque magna sapien nostra tortor gravida pharetra ultricies cras maurisd ornare congue curae rhoncus nullam cum</t>
   </si>
   <si>
     <t xml:space="preserve">employee123@hotmail.com</t>
@@ -95,6 +95,9 @@
     <t xml:space="preserve">Employees321</t>
   </si>
   <si>
+    <t xml:space="preserve">employee_123@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emmp109</t>
   </si>
   <si>
@@ -122,15 +125,24 @@
     <t xml:space="preserve">employee123</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee124</t>
+  </si>
+  <si>
     <t xml:space="preserve">Andrea Contreras</t>
   </si>
   <si>
     <t xml:space="preserve">@employee123.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee125</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carlos Martinez</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee126</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maria Siempre</t>
   </si>
   <si>
@@ -188,7 +200,7 @@
     <t xml:space="preserve">andyvaz@hotmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Employee,123</t>
+    <t xml:space="preserve">Employee+123</t>
   </si>
   <si>
     <t xml:space="preserve">Over Siem</t>
@@ -206,6 +218,9 @@
     <t xml:space="preserve">edmanu@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee127</t>
+  </si>
+  <si>
     <t xml:space="preserve">test</t>
   </si>
   <si>
@@ -215,6 +230,9 @@
     <t xml:space="preserve">employee892@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee128</t>
+  </si>
+  <si>
     <t xml:space="preserve">Testonetwothree*1</t>
   </si>
   <si>
@@ -224,6 +242,9 @@
     <t xml:space="preserve">brayanfa@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee129</t>
+  </si>
+  <si>
     <t xml:space="preserve">testnine</t>
   </si>
   <si>
@@ -233,12 +254,18 @@
     <t xml:space="preserve">cargas@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee130</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hector Gonzales</t>
   </si>
   <si>
     <t xml:space="preserve">pomllak@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee131</t>
+  </si>
+  <si>
     <t xml:space="preserve">test432</t>
   </si>
   <si>
@@ -248,25 +275,58 @@
     <t xml:space="preserve">employeesaim@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee_12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Martin Lopez</t>
   </si>
   <si>
     <t xml:space="preserve">corgmas@hotmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee_13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lalito Lalito</t>
   </si>
   <si>
     <t xml:space="preserve">optamolog@hotmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">AlexRivera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Vazquez</t>
+    <t xml:space="preserve"> Patricio Estrella</t>
   </si>
   <si>
     <t xml:space="preserve">sadasd@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres Rocha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andres@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Contreras Trejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andrea@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea1-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @.</t>
   </si>
   <si>
     <t xml:space="preserve">User ID</t>
@@ -387,7 +447,7 @@
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -433,6 +493,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -554,7 +621,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -591,6 +658,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -603,6 +674,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -611,39 +686,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -651,15 +710,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -726,7 +801,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -813,13 +888,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
@@ -899,11 +974,11 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="109.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -918,408 +993,476 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>70</v>
+      <c r="A24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="10"/>
+        <v>80</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="11"/>
       <c r="F25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="12" t="n">
+      <c r="A28" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="14" t="n">
         <v>32456</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="11" t="s">
+      <c r="D28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1327,7 +1470,7 @@
     <hyperlink ref="B3" r:id="rId2" display="alexisrivera@hotmail.com"/>
     <hyperlink ref="B4" r:id="rId3" display="marcorivera@hotmail.com"/>
     <hyperlink ref="B5" r:id="rId4" display="employee123@hotmail.com"/>
-    <hyperlink ref="B6" r:id="rId5" display="employee123@hotmail.com"/>
+    <hyperlink ref="B6" r:id="rId5" display="employee_123@hotmail.com"/>
     <hyperlink ref="B12" r:id="rId6" display="marisiempre@hotmail.com"/>
     <hyperlink ref="B13" r:id="rId7" display="hirosasiem@hotmail.com"/>
     <hyperlink ref="B14" r:id="rId8" display="cantaralMari@hotmail.com"/>
@@ -1345,6 +1488,8 @@
     <hyperlink ref="B26" r:id="rId20" display="corgmas@hotmail.com"/>
     <hyperlink ref="B27" r:id="rId21" display="optamolog@hotmail.com"/>
     <hyperlink ref="B28" r:id="rId22" display="sadasd@hotmail.com"/>
+    <hyperlink ref="B29" r:id="rId23" display="andres@gmail.com"/>
+    <hyperlink ref="B30" r:id="rId24" display="andrea@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1367,50 +1512,50 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="13"/>
+        <v>100</v>
+      </c>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="A2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="16" t="n">
         <v>200</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1434,7 +1579,7 @@
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
   </cols>
@@ -1449,85 +1594,85 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>83</v>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>83</v>
+      <c r="A3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>83</v>
+      <c r="A4" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>83</v>
+      <c r="A5" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>83</v>
+      <c r="A6" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>83</v>
+      <c r="A7" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1560,14 +1705,14 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1577,45 +1722,45 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24"/>
-      <c r="B2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>83</v>
+      <c r="A2" s="26"/>
+      <c r="B2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>83</v>
+      <c r="A3" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>83</v>
+      <c r="A4" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>82</v>
+      <c r="B5" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1642,11 +1787,11 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -1658,98 +1803,98 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>83</v>
+      <c r="A2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>83</v>
+      <c r="A3" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>83</v>
+      <c r="A4" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="n">
+      <c r="A5" s="22" t="n">
         <v>123131</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>83</v>
+      <c r="B5" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>83</v>
+      <c r="A6" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>83</v>
+      <c r="A7" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>83</v>
+      <c r="A8" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1783,223 +1928,223 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>100</v>
+      <c r="B1" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="29" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="31" t="n">
         <v>43737</v>
       </c>
-      <c r="D2" s="29" t="n">
+      <c r="D2" s="31" t="n">
         <v>44103</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="29" t="n">
+        <v>123</v>
+      </c>
+      <c r="C3" s="31" t="n">
         <v>43737</v>
       </c>
-      <c r="D3" s="29" t="n">
+      <c r="D3" s="31" t="n">
         <v>44103</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
-        <v>105</v>
+      <c r="A4" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="29" t="n">
+        <v>123</v>
+      </c>
+      <c r="C4" s="31" t="n">
         <v>43737</v>
       </c>
-      <c r="D4" s="29" t="n">
+      <c r="D4" s="31" t="n">
         <v>44103</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="29" t="n">
+        <v>123</v>
+      </c>
+      <c r="C5" s="31" t="n">
         <v>43737</v>
       </c>
-      <c r="D5" s="29" t="n">
+      <c r="D5" s="31" t="n">
         <v>44103</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="29" t="n">
+      <c r="A6" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="31" t="n">
         <v>43737</v>
       </c>
-      <c r="D6" s="29" t="n">
+      <c r="D6" s="31" t="n">
         <v>44103</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="33" t="n">
+        <v>130</v>
+      </c>
+      <c r="C7" s="35" t="n">
         <v>43737</v>
       </c>
-      <c r="D7" s="29" t="n">
+      <c r="D7" s="31" t="n">
         <v>44103</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="34" t="n">
+        <v>132</v>
+      </c>
+      <c r="C8" s="36" t="n">
         <v>43737</v>
       </c>
-      <c r="D8" s="29" t="n">
+      <c r="D8" s="31" t="n">
         <v>44103</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="29" t="n">
+        <v>123</v>
+      </c>
+      <c r="C9" s="31" t="n">
         <v>43737</v>
       </c>
-      <c r="D9" s="34" t="n">
+      <c r="D9" s="36" t="n">
         <v>44103</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
-        <v>114</v>
+      <c r="A10" s="37" t="s">
+        <v>134</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="29" t="n">
+        <v>123</v>
+      </c>
+      <c r="C10" s="31" t="n">
         <v>43737</v>
       </c>
-      <c r="D10" s="29" t="n">
+      <c r="D10" s="31" t="n">
         <v>44103</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="10"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2023,7 +2168,7 @@
       <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.86"/>
@@ -2031,30 +2176,30 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>89</v>
+      <c r="D1" s="29" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
     </row>

--- a/hexaboards/DataFileScripts.xlsx
+++ b/hexaboards/DataFileScripts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="135">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -447,7 +447,7 @@
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
     <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -552,6 +552,14 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -621,7 +629,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -724,6 +732,10 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -797,11 +809,11 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="C3 B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -890,11 +902,11 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="1" sqref="C3 D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
@@ -1508,11 +1520,11 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="C3 A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
@@ -1573,13 +1585,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
   </cols>
@@ -1620,9 +1632,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
-        <v>104</v>
+    <row r="3" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>102</v>
@@ -1632,10 +1644,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -1643,8 +1655,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
-        <v>106</v>
+      <c r="A5" s="23" t="s">
+        <v>105</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>102</v>
@@ -1655,25 +1667,39 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="25" t="s">
         <v>103</v>
       </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1683,6 +1709,7 @@
     <hyperlink ref="C5" r:id="rId4" display="Fer@1997"/>
     <hyperlink ref="C6" r:id="rId5" display="Fer@1997"/>
     <hyperlink ref="C7" r:id="rId6" display="Fer@1997"/>
+    <hyperlink ref="C8" r:id="rId7" display="Fer@1997"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1701,11 +1728,11 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="C3 D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
   </cols>
@@ -1722,7 +1749,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="20" t="s">
         <v>102</v>
       </c>
@@ -1756,7 +1783,7 @@
       <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1787,11 +1814,11 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="C3 F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -1893,7 +1920,7 @@
       <c r="B8" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1924,33 +1951,33 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1961,13 +1988,13 @@
       <c r="B2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="31" t="n">
+      <c r="C2" s="32" t="n">
         <v>43737</v>
       </c>
-      <c r="D2" s="31" t="n">
+      <c r="D2" s="32" t="n">
         <v>44103</v>
       </c>
-      <c r="E2" s="32"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,13 +2004,13 @@
       <c r="B3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="31" t="n">
+      <c r="C3" s="32" t="n">
         <v>43737</v>
       </c>
-      <c r="D3" s="31" t="n">
+      <c r="D3" s="32" t="n">
         <v>44103</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>124</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -1991,19 +2018,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="31" t="n">
+      <c r="C4" s="32" t="n">
         <v>43737</v>
       </c>
-      <c r="D4" s="31" t="n">
+      <c r="D4" s="32" t="n">
         <v>44103</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2013,13 +2040,13 @@
       <c r="B5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="31" t="n">
+      <c r="C5" s="32" t="n">
         <v>43737</v>
       </c>
-      <c r="D5" s="31" t="n">
+      <c r="D5" s="32" t="n">
         <v>44103</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="33" t="s">
         <v>124</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -2027,19 +2054,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="31" t="n">
+      <c r="C6" s="32" t="n">
         <v>43737</v>
       </c>
-      <c r="D6" s="31" t="n">
+      <c r="D6" s="32" t="n">
         <v>44103</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,13 +2076,13 @@
       <c r="B7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="35" t="n">
+      <c r="C7" s="36" t="n">
         <v>43737</v>
       </c>
-      <c r="D7" s="31" t="n">
+      <c r="D7" s="32" t="n">
         <v>44103</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,13 +2092,13 @@
       <c r="B8" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="36" t="n">
+      <c r="C8" s="37" t="n">
         <v>43737</v>
       </c>
-      <c r="D8" s="31" t="n">
+      <c r="D8" s="32" t="n">
         <v>44103</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2081,70 +2108,70 @@
       <c r="B9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="31" t="n">
+      <c r="C9" s="32" t="n">
         <v>43737</v>
       </c>
-      <c r="D9" s="36" t="n">
+      <c r="D9" s="37" t="n">
         <v>44103</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>134</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="31" t="n">
+      <c r="C10" s="32" t="n">
         <v>43737</v>
       </c>
-      <c r="D10" s="31" t="n">
+      <c r="D10" s="32" t="n">
         <v>44103</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2165,10 +2192,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+      <selection pane="topLeft" activeCell="M12" activeCellId="1" sqref="C3 M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.86"/>
@@ -2176,16 +2203,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>109</v>
       </c>
     </row>

--- a/hexaboards/DataFileScripts.xlsx
+++ b/hexaboards/DataFileScripts.xlsx
@@ -5,15 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="UserRegistration" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="User-Project Mapping" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="EP_Name" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="EP_Email" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="EP_Password" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="EP_Password" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="EP_Email" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="ProjectCreation" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="ProfileInformation" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="160">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -356,6 +356,24 @@
     <t xml:space="preserve">Anahi R#odriguez40</t>
   </si>
   <si>
+    <t xml:space="preserve">Hugo23siem@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hugoxca###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siempreser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERsiem(#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alma34@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horser45</t>
+  </si>
+  <si>
     <t xml:space="preserve">Email</t>
   </si>
   <si>
@@ -365,24 +383,6 @@
     <t xml:space="preserve">almendrahotmail@.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Hugo23siem@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hugoxca###</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siempreser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERsiem(#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alma34@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horser45</t>
-  </si>
-  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
@@ -395,57 +395,128 @@
     <t xml:space="preserve">Role</t>
   </si>
   <si>
-    <t xml:space="preserve">HexaBoard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project description</t>
+    <t xml:space="preserve">Ivonne-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests Views</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information designed and updated for make tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/09/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests Checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/09/2020</t>
   </si>
   <si>
     <t xml:space="preserve">Scrum Master</t>
   </si>
   <si>
-    <t xml:space="preserve">Bears are carnivoran mammals of 
-the family Ursidae.
- They are classified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hexa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HexaBoard2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bears are carnivoran mammals of the family Ursidae. They are classified as caniforms, or doglike carnivorans. Although only eight species of bears are extant, they are widespread, appearing in a wide variety of habitats throughout the Northern Hemisphere and partially in the Southern Hemisphere. Bears are found on the continents of North America, South America, Europe, and Asia. Common characteristics of modern bears include large bodies with stocky legs, long snouts, small rounded ears, shaggy hair, plantigrade paws with five nonretractile claws, and short tails.
-While the polar bear is mostly carnivorous, and the giant panda feeds almost entirely on bamboo, the remaining six species are omnivorous with varied diets. With the exception of courting individuals and mothers with their young, bears are typically solitary animals. They may be diurnal or nocturnal and have an excellent sense of smell. Despite their heavy build and awkward gait, they are adept runners, climbers, and swimmers. Bears use shelters, such as caves and logs, as their dens; most species occupy their dens during the winter for a long period of hibernation, up to 100 days.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HexaBoard3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HexaBoard4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HexaBoard5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HexaBoard6</t>
+    <t xml:space="preserve">Project 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/08/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/08/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests Views 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Write the information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New tests realized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name for project to change new values and adding more numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add numbers to the list of this project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019/09/29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Views 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/11/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software updates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Text with 1024 characters):Los vieron alejarse, suspirando por lo que habían hecho y a la vez aliviados porque aquello terminara.Los gnomos se acercaron, todavía asustadizos, a los limites del bosque y observaron desolados lo que antes había sido su hogar. Apenas quedaban algunos árboles jóvenes repartidos por el lugar, erguidos sobre un manto de serrín, virutas y ramás rotas. La visión del lugar era desoladora y los gnomos se preguntaban donde iban a vivir a partir de ese momento, ya que en ese bosque, casi desnudo, no podían habitar, pues podrían ser descubiertos. Muy tristes regresaron a la laguna, donde tuvieron que adaptarse a vivir entre las cañas, echando terriblemente de menos el bosque, el sonido de las hojas de los arboles al ser mecidos por el viento, el piar de los pajaritos, los cuales tambien habían huido asustados, y la alfombra de hojas secas que había sido su parque de atracciones particular donde tan bien se lo habian pasado.Un día, una ardillita despistada y solitária, llego al lugar y parada al borde del lo que que.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Project 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information designed and updated for make tests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Information designed and updated for make tests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Project file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text with 1024 characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 /08/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tests Views </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/08/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/09/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove the member assigned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/09/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
-    <numFmt numFmtId="167" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -621,7 +692,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -726,6 +797,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -734,10 +809,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -746,36 +817,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -801,7 +856,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -890,11 +945,11 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
@@ -1512,7 +1567,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
@@ -1579,7 +1634,7 @@
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
   </cols>
@@ -1699,99 +1754,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26"/>
-      <c r="B2" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Fer@1997"/>
-    <hyperlink ref="C3" r:id="rId2" display="Fer@1997"/>
-    <hyperlink ref="C4" r:id="rId3" display="Fer@1997"/>
-    <hyperlink ref="C5" r:id="rId4" display="Fer@1997"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -1822,7 +1791,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>102</v>
@@ -1833,7 +1802,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>102</v>
@@ -1844,7 +1813,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>102</v>
@@ -1866,7 +1835,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>102</v>
@@ -1877,7 +1846,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>102</v>
@@ -1888,12 +1857,12 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1917,234 +1886,514 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27"/>
+      <c r="B2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Fer@1997"/>
+    <hyperlink ref="C3" r:id="rId2" display="Fer@1997"/>
+    <hyperlink ref="C4" r:id="rId3" display="Fer@1997"/>
+    <hyperlink ref="C5" r:id="rId4" display="Fer@1997"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="D1" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="31" t="n">
+      <c r="D2" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="33" t="n">
+        <v>44085</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="34" t="n">
         <v>43737</v>
       </c>
-      <c r="D2" s="31" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="F11" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="31" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D3" s="31" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E3" s="32" t="s">
+      <c r="C12" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="33" t="n">
+        <v>43686</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="31" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D4" s="31" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="31" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D5" s="31" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="33" t="s">
+      <c r="E18" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="31" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D6" s="31" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="35" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D7" s="31" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="36" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D8" s="31" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="31" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D9" s="36" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="31" t="n">
-        <v>43737</v>
-      </c>
-      <c r="D10" s="31" t="n">
-        <v>44103</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
+      <c r="H19" s="31" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2168,7 +2417,7 @@
       <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.86"/>
@@ -2186,7 +2435,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,8 +2460,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>

--- a/hexaboards/DataFileScripts.xlsx
+++ b/hexaboards/DataFileScripts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="EP_Password" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="ProjectCreation" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="ProfileInformation" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="UserDeletion" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="138">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -435,6 +436,15 @@
   </si>
   <si>
     <t xml:space="preserve">HexaBoard6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AndresCarnes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonne01@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivonne5@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -629,7 +639,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -787,6 +797,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -810,10 +824,10 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="C3 B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -903,10 +917,10 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="1" sqref="C3 D34"/>
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
@@ -1521,10 +1535,10 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="C3 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
@@ -1587,11 +1601,11 @@
   </sheetPr>
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
   </cols>
@@ -1729,10 +1743,10 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="C3 D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
   </cols>
@@ -1815,10 +1829,10 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="C3 F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -1952,10 +1966,10 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -2192,10 +2206,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M12" activeCellId="1" sqref="C3 M12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.86"/>
@@ -2233,6 +2247,64 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="ivonne@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.26"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="ivonne5@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/hexaboards/DataFileScripts.xlsx
+++ b/hexaboards/DataFileScripts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="161">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -380,7 +380,10 @@
     <t xml:space="preserve">anahi@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">almendrahotmail@.com</t>
+    <t xml:space="preserve">almendra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                @     .                </t>
   </si>
   <si>
     <t xml:space="preserve">Description</t>
@@ -518,7 +521,7 @@
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
     <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -623,6 +626,12 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -692,7 +701,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -805,7 +814,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -856,7 +873,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -949,7 +966,7 @@
       <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
@@ -1564,10 +1581,10 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
@@ -1628,13 +1645,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
   </cols>
@@ -1676,8 +1693,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
-        <v>104</v>
+      <c r="A3" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>102</v>
@@ -1687,10 +1704,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -1698,8 +1715,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
-        <v>106</v>
+      <c r="A5" s="23" t="s">
+        <v>105</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>102</v>
@@ -1710,23 +1727,34 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1738,6 +1766,7 @@
     <hyperlink ref="C5" r:id="rId4" display="Fer@1997"/>
     <hyperlink ref="C6" r:id="rId5" display="Fer@1997"/>
     <hyperlink ref="C7" r:id="rId6" display="Fer@1997"/>
+    <hyperlink ref="C8" r:id="rId7" display="Fer@1997"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1760,7 +1789,7 @@
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -1891,13 +1920,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
   </cols>
@@ -1934,7 +1963,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="28" t="s">
         <v>117</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -1944,14 +1973,36 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="29" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1961,6 +2012,8 @@
     <hyperlink ref="C3" r:id="rId2" display="Fer@1997"/>
     <hyperlink ref="C4" r:id="rId3" display="Fer@1997"/>
     <hyperlink ref="C5" r:id="rId4" display="Fer@1997"/>
+    <hyperlink ref="C6" r:id="rId5" display="Fer@1997"/>
+    <hyperlink ref="C7" r:id="rId6" display="Fer@1997"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1979,11 +2032,11 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -1992,406 +2045,406 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="31" t="s">
         <v>120</v>
       </c>
+      <c r="F1" s="31" t="s">
+        <v>121</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="A2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="E3" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="31" t="s">
+      <c r="F3" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="31" t="s">
+      <c r="E4" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="31" t="s">
+      <c r="G5" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="31" t="s">
+      <c r="H5" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="31" t="s">
+      <c r="E6" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="21.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="31" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="35" t="n">
+        <v>44085</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="36" t="n">
+        <v>43737</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="35" t="n">
+        <v>43686</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="33" t="n">
-        <v>44085</v>
-      </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="34" t="n">
-        <v>43737</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-    </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="33" t="n">
-        <v>43686</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="31" t="s">
+      <c r="E18" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
+      <c r="F18" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="31" t="s">
+      <c r="A19" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="D19" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="31" t="s">
+      <c r="E19" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="33" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2417,7 +2470,7 @@
       <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.86"/>
@@ -2425,16 +2478,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>115</v>
       </c>
     </row>

--- a/hexaboards/DataFileScripts.xlsx
+++ b/hexaboards/DataFileScripts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="EP_Email" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="ProjectCreation" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="ProfileInformation" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="UserDeletion" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="164">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -510,6 +511,15 @@
   </si>
   <si>
     <t xml:space="preserve">25/09/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivon554@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonnesita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivonne01@</t>
   </si>
 </sst>
 </file>
@@ -521,7 +531,7 @@
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
     <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -631,6 +641,15 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -701,7 +720,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -848,6 +867,18 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -873,7 +904,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -962,11 +993,11 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
@@ -1584,7 +1615,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
@@ -1651,7 +1682,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
   </cols>
@@ -1789,7 +1820,7 @@
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -1922,11 +1953,11 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
   </cols>
@@ -2036,7 +2067,7 @@
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -2470,7 +2501,7 @@
       <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.86"/>
@@ -2515,6 +2546,69 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" s="39" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="554@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>

--- a/hexaboards/DataFileScripts.xlsx
+++ b/hexaboards/DataFileScripts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="163">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Ivonne</t>
   </si>
   <si>
-    <t xml:space="preserve">Ivonne1-</t>
+    <t xml:space="preserve">Ivonne-1</t>
   </si>
   <si>
     <t xml:space="preserve">holis</t>
@@ -397,9 +397,6 @@
   </si>
   <si>
     <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivonne-1</t>
   </si>
   <si>
     <t xml:space="preserve">Tests Views</t>
@@ -900,11 +897,11 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -993,11 +990,11 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
@@ -1615,7 +1612,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
@@ -1678,11 +1675,11 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
   </cols>
@@ -1820,7 +1817,7 @@
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -1953,11 +1950,11 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
   </cols>
@@ -2063,11 +2060,11 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -2106,19 +2103,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="E2" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>126</v>
-      </c>
       <c r="F2" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
@@ -2128,22 +2125,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>128</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>129</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>2</v>
@@ -2154,19 +2151,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="33" t="s">
         <v>131</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>132</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
@@ -2176,22 +2173,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>134</v>
-      </c>
       <c r="E5" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>128</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>129</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>2</v>
@@ -2202,19 +2199,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>126</v>
-      </c>
       <c r="F6" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -2224,17 +2221,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
@@ -2244,19 +2241,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>138</v>
-      </c>
       <c r="E8" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -2266,19 +2263,19 @@
         <v>2</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C9" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="E9" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>141</v>
-      </c>
       <c r="F9" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
@@ -2288,14 +2285,14 @@
         <v>2</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10" s="35" t="n">
         <v>44085</v>
@@ -2308,19 +2305,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C11" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>144</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>145</v>
       </c>
       <c r="E11" s="36" t="n">
         <v>43737</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
@@ -2330,16 +2327,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C12" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>147</v>
-      </c>
       <c r="E12" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -2350,16 +2347,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C13" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>149</v>
-      </c>
       <c r="E13" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -2370,13 +2367,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C14" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>150</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>151</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -2388,19 +2385,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C15" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>152</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>153</v>
       </c>
       <c r="E15" s="35" t="n">
         <v>43686</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
@@ -2410,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
@@ -2424,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
@@ -2438,19 +2435,19 @@
         <v>2</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C18" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="33" t="s">
+      <c r="F18" s="33" t="s">
         <v>156</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>157</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
@@ -2460,20 +2457,20 @@
         <v>2</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="C19" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="E19" s="33" t="s">
         <v>159</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>160</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H19" s="33" t="s">
         <v>2</v>
@@ -2498,10 +2495,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.86"/>
@@ -2557,11 +2554,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -2588,20 +2585,20 @@
         <v>10</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>162</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>163</v>
       </c>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="554@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="ivon554@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/hexaboards/DataFileScripts.xlsx
+++ b/hexaboards/DataFileScripts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,11 @@
     <sheet name="ProjectCreation" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="ProfileInformation" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="UserDeletion" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="SprintAdmin" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="StoriesAdmin" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="ProjectSetup" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="PS_NamSprint" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="MembersManagement" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="180">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -517,6 +522,57 @@
   </si>
   <si>
     <t xml:space="preserve">Ivonne01@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose_rochita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose@1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the description of the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the new description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernandita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmxp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx kmsk djnjksnxksjx kjsxnskjnxksjnx kxjnasxkjans iwjiwis ksmkams ksmkasm ksmsksm  kmkmska kmsksmks mksmx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a new char@cters_ special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint @</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azariel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JennyRivera</t>
   </si>
 </sst>
 </file>
@@ -528,7 +584,7 @@
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
     <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -648,6 +704,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -717,7 +780,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -876,6 +939,38 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -897,11 +992,11 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -979,6 +1074,409 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.02"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Jose@1234"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" s="45" customFormat="true" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" s="45" customFormat="true" ht="155.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <v>1234567</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="46"/>
+      <c r="B7" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Test@123"/>
+    <hyperlink ref="C3" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="C4" r:id="rId3" display="Test@123"/>
+    <hyperlink ref="A5" r:id="rId4" display="a new char@cters_ special"/>
+    <hyperlink ref="C5" r:id="rId5" display="Test@123"/>
+    <hyperlink ref="C6" r:id="rId6" display="Test@123"/>
+    <hyperlink ref="C7" r:id="rId7" display="Test@123"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="47" t="n">
+        <v>12345</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Test@123"/>
+    <hyperlink ref="C3" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="C4" r:id="rId3" display="Test@123"/>
+    <hyperlink ref="C5" r:id="rId4" display="Test@123"/>
+    <hyperlink ref="C6" r:id="rId5" display="Test@123"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="46"/>
+      <c r="B6" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Test@123"/>
+    <hyperlink ref="C3" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="C4" r:id="rId3" display="Test@123"/>
+    <hyperlink ref="C5" r:id="rId4" display="Test@123"/>
+    <hyperlink ref="C6" r:id="rId5" display="Test@123"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -994,7 +1492,7 @@
       <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
@@ -1612,7 +2110,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
@@ -1679,7 +2177,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
   </cols>
@@ -1817,7 +2315,7 @@
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -1954,7 +2452,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
   </cols>
@@ -2060,11 +2558,11 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -2498,7 +2996,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.86"/>
@@ -2558,7 +3056,7 @@
       <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>

--- a/hexaboards/DataFileScripts.xlsx
+++ b/hexaboards/DataFileScripts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="179">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -362,12 +362,12 @@
     <t xml:space="preserve">Anahi R#odriguez40</t>
   </si>
   <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hugo23siem@</t>
   </si>
   <si>
-    <t xml:space="preserve">hugoxca###</t>
-  </si>
-  <si>
     <t xml:space="preserve">Siempreser</t>
   </si>
   <si>
@@ -378,9 +378,6 @@
   </si>
   <si>
     <t xml:space="preserve">Horser45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
   </si>
   <si>
     <t xml:space="preserve">anahi@gmail.com</t>
@@ -992,11 +989,11 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="C3 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.42"/>
@@ -1085,13 +1082,13 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="C3 F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.02"/>
   </cols>
   <sheetData>
@@ -1105,10 +1102,10 @@
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>163</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1132,28 +1129,28 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1174,11 +1171,11 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="1" sqref="C3 J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.43"/>
@@ -1188,7 +1185,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>0</v>
@@ -1199,46 +1196,46 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="C2" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" s="45" customFormat="true" ht="121.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" s="45" customFormat="true" ht="155.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,19 +1243,19 @@
         <v>1234567</v>
       </c>
       <c r="B6" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="46"/>
       <c r="B7" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1288,20 +1285,20 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>0</v>
@@ -1312,35 +1309,35 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,19 +1345,19 @@
         <v>12345</v>
       </c>
       <c r="B5" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="43"/>
       <c r="B6" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1388,15 +1385,15 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>0</v>
@@ -1410,52 +1407,52 @@
         <v>96</v>
       </c>
       <c r="B2" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="46"/>
       <c r="B6" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,11 +1485,11 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="C3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.94921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
@@ -2106,11 +2103,11 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="C3 A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.94921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.02"/>
   </cols>
@@ -2173,13 +2170,14 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="C3 B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.94921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2233,11 +2231,11 @@
       <c r="A4" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>103</v>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,11 +2286,10 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Fer@1997"/>
     <hyperlink ref="C3" r:id="rId2" display="Fer@1997"/>
-    <hyperlink ref="C4" r:id="rId3" display="Fer@1997"/>
-    <hyperlink ref="C5" r:id="rId4" display="Fer@1997"/>
-    <hyperlink ref="C6" r:id="rId5" display="Fer@1997"/>
-    <hyperlink ref="C7" r:id="rId6" display="Fer@1997"/>
-    <hyperlink ref="C8" r:id="rId7" display="Fer@1997"/>
+    <hyperlink ref="C5" r:id="rId3" display="Fer@1997"/>
+    <hyperlink ref="C6" r:id="rId4" display="Fer@1997"/>
+    <hyperlink ref="C7" r:id="rId5" display="Fer@1997"/>
+    <hyperlink ref="C8" r:id="rId6" display="Fer@1997"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2311,15 +2308,18 @@
   </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.94921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.91"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>102</v>
@@ -2356,14 +2356,14 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>103</v>
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2424,7 +2424,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Fer@1997"/>
-    <hyperlink ref="C3" r:id="rId2" display="Fer@1997"/>
+    <hyperlink ref="A3" r:id="rId2" display="ivonne@gmail.com"/>
     <hyperlink ref="C4" r:id="rId3" display="Fer@1997"/>
     <hyperlink ref="C5" r:id="rId4" display="Fer@1997"/>
     <hyperlink ref="C6" r:id="rId5" display="Fer@1997"/>
@@ -2448,18 +2448,18 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>102</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>102</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>102</v>
@@ -2558,11 +2558,11 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="C3 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -2581,16 +2581,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>0</v>
@@ -2604,16 +2604,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="E2" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>125</v>
-      </c>
       <c r="F2" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
@@ -2626,19 +2626,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>127</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>128</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>2</v>
@@ -2652,16 +2652,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="33" t="s">
         <v>130</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>131</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
@@ -2674,19 +2674,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>133</v>
-      </c>
       <c r="E5" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>127</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>128</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>2</v>
@@ -2700,16 +2700,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>125</v>
-      </c>
       <c r="F6" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -2723,13 +2723,13 @@
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
@@ -2742,16 +2742,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>137</v>
-      </c>
       <c r="E8" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -2764,16 +2764,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="E9" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>140</v>
-      </c>
       <c r="F9" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
@@ -2786,11 +2786,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F10" s="35" t="n">
         <v>44085</v>
@@ -2806,16 +2806,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>143</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>144</v>
       </c>
       <c r="E11" s="36" t="n">
         <v>43737</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
@@ -2828,13 +2828,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>146</v>
-      </c>
       <c r="E12" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -2848,13 +2848,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>148</v>
-      </c>
       <c r="E13" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -2868,10 +2868,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>149</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>150</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -2886,16 +2886,16 @@
         <v>3</v>
       </c>
       <c r="C15" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>151</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>152</v>
       </c>
       <c r="E15" s="35" t="n">
         <v>43686</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
@@ -2936,16 +2936,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="33" t="s">
+      <c r="F18" s="33" t="s">
         <v>155</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>156</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
@@ -2958,17 +2958,17 @@
         <v>3</v>
       </c>
       <c r="C19" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="E19" s="33" t="s">
         <v>158</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>159</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19" s="33" t="s">
         <v>2</v>
@@ -2992,11 +2992,11 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.86"/>
@@ -3014,7 +3014,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,11 +3052,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="1" sqref="C3 G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.26"/>
@@ -3069,7 +3069,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>0</v>
@@ -3083,13 +3083,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>161</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>162</v>
       </c>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
